--- a/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>94.74198972064221</v>
+        <v>93.91471092315413</v>
       </c>
       <c r="D2" t="n">
-        <v>8.07805671387761</v>
+        <v>8.114851486934988</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.5271101819793</v>
+        <v>91.27643596445309</v>
       </c>
       <c r="D3" t="n">
-        <v>7.558161879478991</v>
+        <v>7.50168802395802</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.55881815705817</v>
+        <v>91.46470554552772</v>
       </c>
       <c r="D4" t="n">
-        <v>7.954643177505147</v>
+        <v>6.873439677650619</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.73828789790747</v>
+        <v>89.07503881453162</v>
       </c>
       <c r="D5" t="n">
-        <v>8.193577275804103</v>
+        <v>7.031858006858402</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.35046980422909</v>
+        <v>88.25367357830999</v>
       </c>
       <c r="D6" t="n">
-        <v>7.95421692699261</v>
+        <v>7.986013885515025</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.40181762642506</v>
+        <v>87.22636080911887</v>
       </c>
       <c r="D7" t="n">
-        <v>7.372449587592613</v>
+        <v>7.265298385834244</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.23841056076455</v>
+        <v>85.92199189703928</v>
       </c>
       <c r="D8" t="n">
-        <v>7.966833027711319</v>
+        <v>7.319418477929136</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.00063666568738</v>
+        <v>84.11041196221485</v>
       </c>
       <c r="D9" t="n">
-        <v>7.774448400665706</v>
+        <v>7.706025550003004</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.91237693962452</v>
+        <v>83.549707568336</v>
       </c>
       <c r="D10" t="n">
-        <v>7.726759243745576</v>
+        <v>7.91510655811545</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.71904035824369</v>
+        <v>82.1587055677075</v>
       </c>
       <c r="D11" t="n">
-        <v>7.694085925891805</v>
+        <v>7.788260628186916</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.37549725408408</v>
+        <v>81.62805848079661</v>
       </c>
       <c r="D12" t="n">
-        <v>7.956329323964004</v>
+        <v>7.451274897189903</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.60332616380684</v>
+        <v>81.73734203347391</v>
       </c>
       <c r="D13" t="n">
-        <v>8.289231567886274</v>
+        <v>7.459769617768667</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.64571040320851</v>
+        <v>79.85684098085247</v>
       </c>
       <c r="D14" t="n">
-        <v>7.825160454913493</v>
+        <v>6.623960413522086</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.28397641663216</v>
+        <v>77.98684770478314</v>
       </c>
       <c r="D15" t="n">
-        <v>7.163615871875922</v>
+        <v>7.054517265987543</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.45712106319556</v>
+        <v>77.95219726074109</v>
       </c>
       <c r="D16" t="n">
-        <v>7.590450846579243</v>
+        <v>7.181337721742128</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.36657897272015</v>
+        <v>76.44310269561061</v>
       </c>
       <c r="D17" t="n">
-        <v>7.693414077960553</v>
+        <v>7.81085730495453</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.57331006369483</v>
+        <v>75.1115345574578</v>
       </c>
       <c r="D18" t="n">
-        <v>6.982264365446393</v>
+        <v>7.436803166137574</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.81454850726183</v>
+        <v>74.33799866998207</v>
       </c>
       <c r="D19" t="n">
-        <v>8.056985874863797</v>
+        <v>6.972078598314678</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8307228046542</v>
+        <v>72.38374210246812</v>
       </c>
       <c r="D20" t="n">
-        <v>8.196102662616168</v>
+        <v>7.431208706732258</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.75531597514858</v>
+        <v>72.32403851758318</v>
       </c>
       <c r="D21" t="n">
-        <v>7.58975365413442</v>
+        <v>7.714213376449901</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.0213606872028</v>
+        <v>71.17195533235035</v>
       </c>
       <c r="D22" t="n">
-        <v>7.431557195467762</v>
+        <v>6.464444640122667</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.26094917710695</v>
+        <v>71.20081801919498</v>
       </c>
       <c r="D23" t="n">
-        <v>8.91153246826781</v>
+        <v>7.591509215260746</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.77777271519918</v>
+        <v>69.18213514180407</v>
       </c>
       <c r="D24" t="n">
-        <v>6.221590574200087</v>
+        <v>7.443397020923272</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.91354350004198</v>
+        <v>67.70369050826635</v>
       </c>
       <c r="D25" t="n">
-        <v>7.291236024195841</v>
+        <v>7.068700587958247</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.98381123713575</v>
+        <v>66.47095620000403</v>
       </c>
       <c r="D26" t="n">
-        <v>7.86858433991712</v>
+        <v>6.089551700350794</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.33440683568975</v>
+        <v>67.14685747117979</v>
       </c>
       <c r="D27" t="n">
-        <v>8.179424901769</v>
+        <v>6.768475929342283</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.16708534455644</v>
+        <v>65.10972449770782</v>
       </c>
       <c r="D28" t="n">
-        <v>8.401823644429463</v>
+        <v>7.107349758135152</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.37422467279818</v>
+        <v>64.33907502874582</v>
       </c>
       <c r="D29" t="n">
-        <v>6.88023280036573</v>
+        <v>6.999596298199631</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.49550523337501</v>
+        <v>63.08525098734175</v>
       </c>
       <c r="D30" t="n">
-        <v>7.950850865781771</v>
+        <v>6.976484889196911</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.71069224498335</v>
+        <v>62.26769887007797</v>
       </c>
       <c r="D31" t="n">
-        <v>7.676705224963071</v>
+        <v>6.995542233914057</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.61008411450948</v>
+        <v>61.71642952329629</v>
       </c>
       <c r="D32" t="n">
-        <v>7.534210404715995</v>
+        <v>7.484458416440719</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.47302283781706</v>
+        <v>61.54574307639857</v>
       </c>
       <c r="D33" t="n">
-        <v>7.666397365143093</v>
+        <v>8.262770404638273</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.37983874970749</v>
+        <v>58.91755781272654</v>
       </c>
       <c r="D34" t="n">
-        <v>6.797780258746347</v>
+        <v>6.393482357054142</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.63412720247658</v>
+        <v>56.85157280053239</v>
       </c>
       <c r="D35" t="n">
-        <v>6.921509558714757</v>
+        <v>6.712891062687934</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.42282208794889</v>
+        <v>57.01884031058162</v>
       </c>
       <c r="D36" t="n">
-        <v>8.07344929166023</v>
+        <v>6.327206268067606</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.44054817418597</v>
+        <v>55.20270010648616</v>
       </c>
       <c r="D37" t="n">
-        <v>7.259775898115169</v>
+        <v>6.930296758341157</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.21466861465257</v>
+        <v>54.59673526856763</v>
       </c>
       <c r="D38" t="n">
-        <v>7.70437308415111</v>
+        <v>7.417885234620132</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.98698361254213</v>
+        <v>53.73281318393707</v>
       </c>
       <c r="D39" t="n">
-        <v>6.759644645855821</v>
+        <v>7.731440282383374</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.4023786601841</v>
+        <v>52.36034715042619</v>
       </c>
       <c r="D40" t="n">
-        <v>8.274161941615057</v>
+        <v>7.103011300455819</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.33437702078456</v>
+        <v>51.5319470124583</v>
       </c>
       <c r="D41" t="n">
-        <v>7.641049825308086</v>
+        <v>6.641156435990243</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.03535763888171</v>
+        <v>50.98714478711595</v>
       </c>
       <c r="D42" t="n">
-        <v>8.008707722139313</v>
+        <v>6.958334678647794</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.02206145947915</v>
+        <v>49.51785622902904</v>
       </c>
       <c r="D43" t="n">
-        <v>8.294833859832114</v>
+        <v>7.553700474743184</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.85094080079767</v>
+        <v>48.66677089999283</v>
       </c>
       <c r="D44" t="n">
-        <v>7.876724258461753</v>
+        <v>6.538734741858517</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.03476391786347</v>
+        <v>46.86471291702229</v>
       </c>
       <c r="D45" t="n">
-        <v>8.436967729417901</v>
+        <v>6.347634660921438</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.87427050134347</v>
+        <v>46.83199867941549</v>
       </c>
       <c r="D46" t="n">
-        <v>8.066575140046806</v>
+        <v>6.401285537360069</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.25686145295692</v>
+        <v>45.05003120429001</v>
       </c>
       <c r="D47" t="n">
-        <v>6.308340876001036</v>
+        <v>6.630515863685295</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.89501674492872</v>
+        <v>44.58787640429519</v>
       </c>
       <c r="D48" t="n">
-        <v>7.416025385553374</v>
+        <v>8.388613387261506</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.4983280812619</v>
+        <v>44.2309546015845</v>
       </c>
       <c r="D49" t="n">
-        <v>7.861665568622301</v>
+        <v>7.26663372558893</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.30092697150926</v>
+        <v>42.81024280655229</v>
       </c>
       <c r="D50" t="n">
-        <v>6.475426985369828</v>
+        <v>6.866463678879571</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.27938183348992</v>
+        <v>41.1028997572248</v>
       </c>
       <c r="D51" t="n">
-        <v>7.476703021915082</v>
+        <v>6.76876459697246</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.710405469236</v>
+        <v>40.18164875701791</v>
       </c>
       <c r="D52" t="n">
-        <v>7.758644698198833</v>
+        <v>7.568960366893388</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.35345648735599</v>
+        <v>38.49493857887985</v>
       </c>
       <c r="D53" t="n">
-        <v>6.418905295149267</v>
+        <v>7.290358821329101</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.25668281975184</v>
+        <v>38.97374144534466</v>
       </c>
       <c r="D54" t="n">
-        <v>8.055990272661797</v>
+        <v>7.484675952440315</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.90208362631634</v>
+        <v>37.94700133034896</v>
       </c>
       <c r="D55" t="n">
-        <v>7.588830717738494</v>
+        <v>7.026332151499501</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.72215313149888</v>
+        <v>36.63441196786887</v>
       </c>
       <c r="D56" t="n">
-        <v>7.030586737806933</v>
+        <v>7.242351156676177</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.995023120719</v>
+        <v>35.36366917045815</v>
       </c>
       <c r="D57" t="n">
-        <v>7.892626234832735</v>
+        <v>6.969075132909258</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.25657331960495</v>
+        <v>34.28601806708205</v>
       </c>
       <c r="D58" t="n">
-        <v>6.724324737640476</v>
+        <v>7.381798927120505</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.68472880378513</v>
+        <v>32.63611538013242</v>
       </c>
       <c r="D59" t="n">
-        <v>7.328718706220521</v>
+        <v>6.666409582200757</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.9612371468139</v>
+        <v>31.86149853849805</v>
       </c>
       <c r="D60" t="n">
-        <v>7.112265557179733</v>
+        <v>7.639618370181141</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.81360895596628</v>
+        <v>31.18808044558763</v>
       </c>
       <c r="D61" t="n">
-        <v>7.744581419377967</v>
+        <v>7.048168851277754</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.19567390830534</v>
+        <v>30.13310841172569</v>
       </c>
       <c r="D62" t="n">
-        <v>6.971281243246321</v>
+        <v>7.248115820749772</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.67688115212827</v>
+        <v>29.10901283975158</v>
       </c>
       <c r="D63" t="n">
-        <v>7.314557375308897</v>
+        <v>7.015117132910459</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.78174609773305</v>
+        <v>27.2137050434386</v>
       </c>
       <c r="D64" t="n">
-        <v>6.943338967721377</v>
+        <v>7.166196056851166</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.62894205316387</v>
+        <v>25.93509836623016</v>
       </c>
       <c r="D65" t="n">
-        <v>7.505334968005533</v>
+        <v>7.554056072457584</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.50835858315576</v>
+        <v>27.89319884232199</v>
       </c>
       <c r="D66" t="n">
-        <v>6.859083563577693</v>
+        <v>7.619422685923012</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.88099936744744</v>
+        <v>24.9874648362159</v>
       </c>
       <c r="D67" t="n">
-        <v>7.422098407523917</v>
+        <v>7.726488946927089</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.76495543645233</v>
+        <v>24.16970633093029</v>
       </c>
       <c r="D68" t="n">
-        <v>6.374280861149913</v>
+        <v>6.878988927371244</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.71667642947678</v>
+        <v>22.65139039119927</v>
       </c>
       <c r="D69" t="n">
-        <v>6.427520200490294</v>
+        <v>8.178555829346704</v>
       </c>
     </row>
   </sheetData>
